--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Gitcode\TestGit\TestGit\src\main\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git\Test1\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE71F5-5892-4EBC-8828-2CFB5202C608}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80B66F-489D-4673-90EC-ACFA5E40DC67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>Bajaj</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
     <t>Bike</t>
   </si>
   <si>
@@ -45,10 +39,28 @@
     <t>R100</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Shyam</t>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>tvs apache</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>suzuki</t>
+  </si>
+  <si>
+    <t>virendra</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>sourabh</t>
+  </si>
+  <si>
+    <t>shubham</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,31 +425,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git\Test1\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git\Test2Shubham\Test1\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80B66F-489D-4673-90EC-ACFA5E40DC67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C50B6-4097-4EB4-9101-A484FB420336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Customer</t>
   </si>
@@ -51,16 +51,28 @@
     <t>suzuki</t>
   </si>
   <si>
-    <t>virendra</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
     <t>sourabh</t>
   </si>
   <si>
     <t>shubham</t>
+  </si>
+  <si>
+    <t>mahendra</t>
+  </si>
+  <si>
+    <t>activa</t>
+  </si>
+  <si>
+    <t>yogendra</t>
+  </si>
+  <si>
+    <t>scooty</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>bullet</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +442,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -438,7 +450,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -462,10 +474,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git\Test2Shubham\Test1\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git2\Test1\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C50B6-4097-4EB4-9101-A484FB420336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ACA51-D851-4F1B-BF05-3766A9142F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Customer</t>
   </si>
@@ -57,22 +57,16 @@
     <t>shubham</t>
   </si>
   <si>
-    <t>mahendra</t>
-  </si>
-  <si>
-    <t>activa</t>
-  </si>
-  <si>
-    <t>yogendra</t>
-  </si>
-  <si>
-    <t>scooty</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>bullet</t>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Tractor</t>
   </si>
 </sst>
 </file>
@@ -424,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,14 +482,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git2\Test1\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shyam GIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ACA51-D851-4F1B-BF05-3766A9142F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5109085F-16C8-4894-AAB8-473CCC7B851C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Customer</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Tractor</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git2\Test1\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ACA51-D851-4F1B-BF05-3766A9142F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD57CE7-80B3-47A6-BC24-075F53F79CA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Customer</t>
   </si>
@@ -57,16 +57,10 @@
     <t>shubham</t>
   </si>
   <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Shyam</t>
-  </si>
-  <si>
-    <t>Tractor</t>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
 </sst>
 </file>
@@ -418,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,14 +468,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD57CE7-80B3-47A6-BC24-075F53F79CA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B482997-8F3C-4D86-AC10-6A56A8C414CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Customer</t>
   </si>
@@ -57,10 +57,16 @@
     <t>shubham</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>world</t>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>tractor</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +471,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B482997-8F3C-4D86-AC10-6A56A8C414CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E52F5-5E91-4C95-9205-4C1B3552B74F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Customer</t>
   </si>
@@ -60,13 +60,19 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>shyam</t>
-  </si>
-  <si>
-    <t>tractor</t>
-  </si>
-  <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram </t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,10 +482,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E52F5-5E91-4C95-9205-4C1B3552B74F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3C990-A001-4568-8E8C-7DCC5DE74548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Customer</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Tractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ram </t>
   </si>
 </sst>
 </file>
@@ -427,10 +424,14 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -490,7 +491,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3C990-A001-4568-8E8C-7DCC5DE74548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AAB5BE-6136-49D6-9746-A96A2B738C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Customer</t>
   </si>
@@ -60,16 +60,7 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>Cycle</t>
-  </si>
-  <si>
-    <t>Shyam</t>
-  </si>
-  <si>
-    <t>Tractor</t>
   </si>
 </sst>
 </file>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,22 +469,6 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RamGIT\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git2\Test1\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3C990-A001-4568-8E8C-7DCC5DE74548}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD24A96-54D1-4C2E-9413-51AFC92F07C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,51 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>Pulsar</t>
-  </si>
-  <si>
-    <t>R100</t>
-  </si>
-  <si>
-    <t>mahesh</t>
-  </si>
-  <si>
-    <t>tvs apache</t>
-  </si>
-  <si>
-    <t>rohan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>suzuki</t>
   </si>
   <si>
-    <t>sourabh</t>
-  </si>
-  <si>
-    <t>shubham</t>
-  </si>
-  <si>
     <t>Ram</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Shyam</t>
-  </si>
-  <si>
     <t>Tractor</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>yla</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>sdfas</t>
+  </si>
+  <si>
+    <t>afas</t>
+  </si>
+  <si>
+    <t>adfasd</t>
   </si>
 </sst>
 </file>
@@ -421,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,47 +432,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -486,15 +483,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Cucumber/src/SeleniumExcel.xlsx
+++ b/Cucumber/src/SeleniumExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\git\Test1\Cucumber\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelTesting\Test1\Cucumber\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80B66F-489D-4673-90EC-ACFA5E40DC67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92600FE3-A8E4-4AA0-8C76-00A2F1E52FF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37DC1FCF-43AD-40A4-87E8-3E4EA11A1777}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Customer</t>
   </si>
@@ -51,9 +51,6 @@
     <t>suzuki</t>
   </si>
   <si>
-    <t>virendra</t>
-  </si>
-  <si>
     <t>vespa</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>shubham</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>autom</t>
+  </si>
+  <si>
+    <t>shyam</t>
+  </si>
+  <si>
+    <t>tractor</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF2071B-D2B5-428C-A556-0CE07AC6C31B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +442,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -438,7 +450,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -462,10 +474,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
